--- a/testcaseQLLK.xlsx
+++ b/testcaseQLLK.xlsx
@@ -1,44 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duy\personal_project\quanlykhoV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duy\personal_project\quanlykhoV3\quanlykho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C883D97-D0E3-4B1D-9CC8-60CDA8AAAA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C8656-FF8D-4C06-A32B-3644990B0B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{A0B57F85-DF0B-450C-8305-E37AD57DDB6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{A0B57F85-DF0B-450C-8305-E37AD57DDB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="linhkien" sheetId="2" r:id="rId2"/>
-    <sheet name="ĐCGV" sheetId="6" r:id="rId3"/>
-    <sheet name="ThuongHieu" sheetId="3" r:id="rId4"/>
-    <sheet name="NCC" sheetId="4" r:id="rId5"/>
-    <sheet name="Xuất file " sheetId="5" r:id="rId6"/>
+    <sheet name="ThuongHieu" sheetId="3" r:id="rId3"/>
+    <sheet name="NCC" sheetId="4" r:id="rId4"/>
+    <sheet name="Xuất file " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="163">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -67,210 +58,29 @@
     <t xml:space="preserve">Đăng nhập thành công : </t>
   </si>
   <si>
-    <t>ID : duyvo3001@gmail.com , Pasword : 123</t>
-  </si>
-  <si>
-    <t>Vào trang homeLinhKien</t>
-  </si>
-  <si>
     <t>Đăng nhập khi thiếu Username</t>
   </si>
   <si>
     <t>Đăng nhập khi thiếu Password</t>
   </si>
   <si>
-    <t>Nhập vào input Username : duyvo3001@gmail.com .
-Nhập vào input Password : 123 . 
-Click Sign in</t>
-  </si>
-  <si>
-    <r>
-      <t>Nhập vào input Username : ' ' .
-Nhập vào input Password : 123 .
-Clic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k Sign in</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ID : ' ' , 
-Password : 123 
-</t>
-  </si>
-  <si>
-    <t>Send request  : tài khoản hoặc mật khẩu để trống</t>
-  </si>
-  <si>
     <t>Positive</t>
   </si>
   <si>
-    <r>
-      <t>Nhập vào input Username : duyvo3001@gmail.com  .
-Nhập vào input Password : ' '  .
-Clic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k Sign in</t>
-    </r>
-  </si>
-  <si>
     <t>Đăng nhập sai username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID : duyvo3001@gmail.com , 
-Password : ' ' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID : duyvo1231111
-Password : 123 </t>
-  </si>
-  <si>
-    <r>
-      <t>Nhập vào input Username : 
-duyvo1231111  .
-Nhập vào input Password : 123  .
-Clic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k Sign in</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Send request  : tài khoản đăng nhập không đúng </t>
   </si>
   <si>
     <t>Đăng nhập khi đúng username  , 
 sai password</t>
   </si>
   <si>
-    <t xml:space="preserve">ID : duyvo3001@gmail.com , 
-Password : 12333 
-</t>
-  </si>
-  <si>
-    <r>
-      <t>Nhập vào input Username : duyvo3001@gmail.com  .
-Nhập vào input Password : 12333  .
-Clic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k Sign in</t>
-    </r>
-  </si>
-  <si>
-    <t>Send request  :sai mật khẩu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đăng nhập khi username có chứa kí tự đặc biệt  , Password đúng </t>
   </si>
   <si>
-    <t xml:space="preserve">ID : duyvo3001@gmail.com' , 
-Password : 123 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID : duyvo3001@gmail.com , 
-Password : 123' 
-</t>
-  </si>
-  <si>
-    <r>
-      <t>Nhập vào input Username : duyvo3001@gmail.com'  .
-Nhập vào input Password : 123  .
-Clic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k Sign in</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Nhập vào input Username : duyvo3001@gmail.com  .
-Nhập vào input Password : 123'  .
-Clic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k Sign in</t>
-    </r>
-  </si>
-  <si>
     <t>TEST CASE LINHKIEN</t>
   </si>
   <si>
     <t xml:space="preserve">Nhập linh kiện thành công </t>
-  </si>
-  <si>
-    <t>MaLK : SP0000001 , TenLK : ASUS ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ
-Đơn vị : cái , Số lượng : 1 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : trongkho ,NCC : NCC001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quay lại trang homeLinhKien
- , hiển thị hàng đã nhập </t>
-  </si>
-  <si>
-    <t>Nhập linh kiện trùng mã</t>
-  </si>
-  <si>
-    <t>Nhập : MaLK : SP0000001 , TenLK : ASUS ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ
-Đơn vị : cái , Số lượng : 1 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : trongkho ,NCC : NCC001 . Click tạo mới</t>
-  </si>
-  <si>
-    <t>MaLK : SP0000001' , TenLK : ASUS ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ
-Đơn vị : cái , Số lượng : 1 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : trongkho ,NCC : NCC001</t>
-  </si>
-  <si>
-    <t>Nhập : MaLK : SP0000001' , TenLK : ASUS ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ
-Đơn vị : cái , Số lượng : 1 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : trongkho ,NCC : NCC001 . Click tạo mới</t>
-  </si>
-  <si>
-    <t>send request  : trùng mã nhập hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">send request  : có ký tự đặc biệt </t>
   </si>
   <si>
     <t>Negative</t>
@@ -291,40 +101,16 @@
 Đơn vị :  ' ' , Số lượng : ' ' , Giá bán lẻ : ' ' , mã kho : ' ' , TTH : ' '  ,NCC :  ' ' . Click tạo mới</t>
   </si>
   <si>
-    <t xml:space="preserve">send request : không để trống hàng </t>
-  </si>
-  <si>
     <t xml:space="preserve">Tìm kiếm Linh Kiện </t>
   </si>
   <si>
-    <t>MaLK : SP0000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập MaLK : SP0000001 . Click tìm kiếm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiện thị linh kiện </t>
-  </si>
-  <si>
     <t>Để trống linh kiện tìm kiếm</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhập MaLK : ' ' . Click tìm kiếm </t>
-  </si>
-  <si>
     <t>MaLK :' '</t>
   </si>
   <si>
-    <t xml:space="preserve">Không Hiện thị linh kiện </t>
-  </si>
-  <si>
     <t>Nhập kí tự đặc biệt tìm kiếm</t>
-  </si>
-  <si>
-    <t>MaLK : SP0000001'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập MaLK : SP0000001' . Click tìm kiếm </t>
   </si>
   <si>
     <t>TEST CASE ThuongHieu</t>
@@ -415,28 +201,10 @@
     <t xml:space="preserve">Sửa linh kiện </t>
   </si>
   <si>
-    <t xml:space="preserve">Quay lại trang homeLinhKien
- , hiển thị hàng đã sửa </t>
-  </si>
-  <si>
-    <t>Nhập : MaLK : SP0000002 , TenLK : ASUS ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ
-Đơn vị : cái , Số lượng : 1 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : trongkho ,NCC : NCC001 . Click tạo mới</t>
-  </si>
-  <si>
     <t>MaLk : SP0000002</t>
   </si>
   <si>
-    <t xml:space="preserve">Sửa linh kiện bị trùng mã </t>
-  </si>
-  <si>
     <t>Sửa linh kiện có ký tự đăc biệt</t>
-  </si>
-  <si>
-    <t>Nhập : MaLK : SP0000004 , TenLK : ASUS ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ
-Đơn vị : cái , Số lượng : 1 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : trongkho ,NCC : NCC001 . Click tạo mới</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send request :chứa ký tự đặc biệt </t>
   </si>
   <si>
     <t xml:space="preserve">Để trống linh kiện sửa </t>
@@ -467,37 +235,6 @@
   </si>
   <si>
     <t xml:space="preserve">Quay lại trang home linh kiện , không xóa linh kiện </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điều chỉnh giá vốn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Để trống điều chỉnh giá vốn </t>
-  </si>
-  <si>
-    <t>Điều chỉnh giá vốn có ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>MaLK : SP0000003 , Giá bán lẻ  : 2668000</t>
-  </si>
-  <si>
-    <t>MaLK : SP0000003 , Giá bán lẻ  : 2668000 . Click chỉnh sửa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quay lại trang home linh kiện , 
-Sửa giá  linh kiện </t>
-  </si>
-  <si>
-    <t>MaLK : ' ' , Giá bán lẻ  :' '</t>
-  </si>
-  <si>
-    <t>MaLK : ' ' , Giá bán lẻ  :' ' .  Click chỉnh sửa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">send request : không để trống hàng  chỉnh sửa </t>
-  </si>
-  <si>
-    <t>TEST CASE ĐIỀU CHỈNH GIÁ VỐN</t>
   </si>
   <si>
     <t>Send request : không để trống thương hiệu</t>
@@ -739,13 +476,156 @@
   <si>
     <t xml:space="preserve">Mã nhà cung cấp : NCC14 , xóa
 </t>
+  </si>
+  <si>
+    <t>ID : administrator, Pasword : Admin123</t>
+  </si>
+  <si>
+    <t>Nhập vào input Username : administrator, 
+Nhập vào input Password : Admin123 . 
+Click : Log in</t>
+  </si>
+  <si>
+    <t>Vào trang Dash Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID : ' ' , 
+Password : Admin123 
+</t>
+  </si>
+  <si>
+    <t>disabled button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID : administrator , 
+Password : ' ' 
+</t>
+  </si>
+  <si>
+    <t>Send request  :account or password is incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID : administrator123
+Password : Admin123 </t>
+  </si>
+  <si>
+    <t>Nhập vào input Username : ' ' .
+Nhập vào input Password : Admin123 .
+Click Log in</t>
+  </si>
+  <si>
+    <t>Nhập vào input Username : administrator,  
+Nhập vào input Password : ' '  .
+Click Log in</t>
+  </si>
+  <si>
+    <t>Nhập vào input Username : 
+administrator123  .
+Nhập vào input Password : Admin123  .
+Click Log in</t>
+  </si>
+  <si>
+    <t>Nhập vào input Username : administrator  
+Nhập vào input Password : Admin123  .
+Click Log in</t>
+  </si>
+  <si>
+    <t>Send request  : Contains invalid characters</t>
+  </si>
+  <si>
+    <t>Send request  :Contains invalid characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID : administrator , 
+Password : Admin12312
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID : administrator' , 
+Password : Admin123 
+</t>
+  </si>
+  <si>
+    <t>Nhập vào input Username : administrator'  
+Nhập vào input Password : Admin123  .
+Click Log in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập khi Password có chứa kí tự đặc biệt  , username đúng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID : administrator , 
+Password : Admin123'  
+</t>
+  </si>
+  <si>
+    <t>Nhập vào input Username : administrator'  
+Nhập vào input Password : Admin123'  .
+Click Log in</t>
+  </si>
+  <si>
+    <t>TenLK : ASUS ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ ,  Category : VGA ,
+Đơn vị : unit , Số lượng : 10 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : trongkho ,NCC : NCC001</t>
+  </si>
+  <si>
+    <t>Nhập : TenLK : ASUS ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ ,  Category : VGA ,
+Đơn vị : unit , Số lượng : 10 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : trongkho ,NCC : NCC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alter : add product success , Reset table  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TenLK :  ' ', TH : ' ' , MÀU : ' ' , Category : ""
+Đơn vị :  ' ' , Số lượng : ' ' , Giá bán lẻ : ' ' , mã kho : ' ' , TTH : ' '  ,NCC :  ' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabled button </t>
+  </si>
+  <si>
+    <t>MaLK : VGAASUS13481eff80a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập MaLK : VGAASUS13481eff80a </t>
+  </si>
+  <si>
+    <t>Hiện thị linh kiện tại table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập MaLK : ' ' </t>
+  </si>
+  <si>
+    <t>Không hiện thị linh kiện tại table</t>
+  </si>
+  <si>
+    <t>MaLK : VGAASUS13481eff80a'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập MaLK : VGAASUS13481eff80a'  </t>
+  </si>
+  <si>
+    <t>MaLk : VGAASUS13481eff80a .  Nhập : TenLK : ASUS ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ , Đơn vị : cái , Số lượng : 1 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : GOOD ,NCC : NCC001  , Category :Laptop. Click update</t>
+  </si>
+  <si>
+    <t>Nhập : TenLK : ASUS ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ , Đơn vị : cái , Số lượng : 1 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : GOOD ,NCC : NCC001 ,  Category :Laptop. Click update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reset table , hiển thị hàng đã sửa </t>
+  </si>
+  <si>
+    <t>Nhập : TenLK : ASUS ' ROG Strix RTX 4080 16GB OC GDDR6X , TH :Asus , MÀU : Đỏ , Đơn vị : cái , Số lượng : 1 , Giá bán lẻ 42000000 , mã kho : KHO001 , TTH : GOOD ,NCC : NCC001 ,  Category :Laptop. Click update</t>
+  </si>
+  <si>
+    <t>Send request 'chứa kí tự đặc biệt'</t>
+  </si>
+  <si>
+    <t>Quay lại trang homeLinhKien</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,13 +644,6 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -860,11 +733,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -872,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -888,7 +761,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -900,13 +773,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -915,8 +788,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1242,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7B750F-1EDE-4CB7-90BF-22981AFBDC7D}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,19 +1176,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1317,45 +1196,45 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="58.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -1363,45 +1242,45 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1409,45 +1288,45 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="58.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1473,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCE1C93-E3C2-413F-B3EB-61BFF04ACCAF}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,15 +1364,15 @@
     <col min="2" max="2" width="4.88671875" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="42.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
     <col min="8" max="8" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1519,303 +1398,234 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
+    <row r="5" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+        <v>147</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+        <v>149</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>40</v>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+        <v>152</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+        <v>154</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
         <v>5</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>49</v>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19">
+        <v>6</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B11" s="19">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="19">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="19">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
-        <v>7</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="G13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="10">
-        <v>10</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>93</v>
+        <v>61</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="10">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="10">
-        <v>12</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1825,119 +1635,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AA2173-73D1-47B3-8040-F437719B5CB3}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="7" width="30.5546875" customWidth="1"/>
-    <col min="8" max="8" width="30.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B3C65E-01EF-4590-98C0-F661353B06FD}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C46" sqref="C45:C46"/>
     </sheetView>
   </sheetViews>
@@ -1955,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1986,22 +1687,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2009,22 +1710,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2032,22 +1733,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2055,22 +1756,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2078,22 +1779,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2101,22 +1802,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2124,22 +1825,22 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2147,22 +1848,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2170,22 +1871,22 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2193,22 +1894,22 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2216,22 +1917,22 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2239,22 +1940,22 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -2262,7 +1963,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2270,12 +1971,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AD58B4-DED3-4570-A7AB-DA72FAF08FCD}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2292,7 +1993,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -2352,22 +2053,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -2376,22 +2077,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -2400,22 +2101,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2424,22 +2125,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2448,22 +2149,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2472,22 +2173,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2496,22 +2197,22 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2520,22 +2221,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -2544,22 +2245,22 @@
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -2568,22 +2269,22 @@
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2592,22 +2293,22 @@
         <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2616,22 +2317,22 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2640,14 +2341,14 @@
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2655,11 +2356,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632A809B-DE64-49EF-9F22-E46DF328C982}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -2677,7 +2378,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2708,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2716,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2724,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2732,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2740,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2748,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2756,7 +2457,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2764,7 +2465,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2772,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">

--- a/testcaseQLLK.xlsx
+++ b/testcaseQLLK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duy\personal_project\quanlykhoV3\quanlykho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C8656-FF8D-4C06-A32B-3644990B0B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A5C265-43B6-4064-AE71-B9C5C3F28911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{A0B57F85-DF0B-450C-8305-E37AD57DDB6B}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="linhkien" sheetId="2" r:id="rId2"/>
     <sheet name="ThuongHieu" sheetId="3" r:id="rId3"/>
     <sheet name="NCC" sheetId="4" r:id="rId4"/>
-    <sheet name="Xuất file " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -427,9 +426,6 @@
   </si>
   <si>
     <t xml:space="preserve">Xóa NCC </t>
-  </si>
-  <si>
-    <t>Xóa NCC khi không có mã</t>
   </si>
   <si>
     <t xml:space="preserve">Mã nhà cung cấp : NCC14 ,
@@ -1121,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7B750F-1EDE-4CB7-90BF-22981AFBDC7D}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1176,16 +1172,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>11</v>
@@ -1199,16 +1195,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>11</v>
@@ -1222,16 +1218,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>11</v>
@@ -1245,16 +1241,16 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>11</v>
@@ -1268,16 +1264,16 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>11</v>
@@ -1291,16 +1287,16 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>11</v>
@@ -1311,19 +1307,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>11</v>
@@ -1406,16 +1402,16 @@
         <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>11</v>
@@ -1429,16 +1425,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>11</v>
@@ -1452,16 +1448,16 @@
         <v>22</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>11</v>
@@ -1478,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>11</v>
@@ -1498,16 +1494,16 @@
         <v>25</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>11</v>
@@ -1521,16 +1517,16 @@
         <v>52</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="G10" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>11</v>
@@ -1544,16 +1540,16 @@
         <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>11</v>
@@ -1582,7 +1578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="19">
         <v>10</v>
       </c>
@@ -1973,10 +1969,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AD58B4-DED3-4570-A7AB-DA72FAF08FCD}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2224,16 +2220,16 @@
         <v>109</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="G12" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>11</v>
@@ -2248,10 +2244,10 @@
         <v>110</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>119</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>89</v>
@@ -2272,16 +2268,16 @@
         <v>111</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>11</v>
@@ -2320,10 +2316,10 @@
         <v>113</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>103</v>
@@ -2333,152 +2329,6 @@
       </c>
       <c r="H16" s="18" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632A809B-DE64-49EF-9F22-E46DF328C982}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="44.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
